--- a/Assignments/Assignment 3 - Shortest path/Shortest Path tables.xlsx
+++ b/Assignments/Assignment 3 - Shortest path/Shortest Path tables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6888"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6885"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="30">
   <si>
     <t>dist</t>
   </si>
@@ -82,12 +82,45 @@
   <si>
     <t xml:space="preserve">Start H1 </t>
   </si>
+  <si>
+    <t>H11</t>
+  </si>
+  <si>
+    <t>H12</t>
+  </si>
+  <si>
+    <t>H13</t>
+  </si>
+  <si>
+    <t>H14</t>
+  </si>
+  <si>
+    <t>H15</t>
+  </si>
+  <si>
+    <t>H16</t>
+  </si>
+  <si>
+    <t>H17</t>
+  </si>
+  <si>
+    <t>H18</t>
+  </si>
+  <si>
+    <t>H19</t>
+  </si>
+  <si>
+    <t>H20</t>
+  </si>
+  <si>
+    <t>H21</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +132,19 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -118,7 +164,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -385,11 +431,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -488,7 +575,128 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -769,15 +977,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R67"/>
+  <dimension ref="A1:AK136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="L54" sqref="L54"/>
+    <sheetView tabSelected="1" topLeftCell="F94" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AF116" sqref="X95:AF116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="10" t="s">
         <v>12</v>
       </c>
@@ -812,7 +1020,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
@@ -840,7 +1048,7 @@
       <c r="P2" s="35"/>
       <c r="Q2" s="4"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
@@ -864,7 +1072,7 @@
       <c r="P3" s="6"/>
       <c r="Q3" s="37"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
@@ -896,7 +1104,7 @@
       <c r="P4" s="9"/>
       <c r="Q4" s="39"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="16" t="s">
         <v>1</v>
       </c>
@@ -928,7 +1136,7 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="40"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="13" t="s">
         <v>0</v>
       </c>
@@ -964,7 +1172,7 @@
       </c>
       <c r="Q6" s="39"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="13" t="s">
         <v>1</v>
       </c>
@@ -1000,7 +1208,7 @@
       </c>
       <c r="Q7" s="40"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" s="16" t="s">
         <v>0</v>
       </c>
@@ -1038,7 +1246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" s="16" t="s">
         <v>1</v>
       </c>
@@ -1076,7 +1284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10" s="13" t="s">
         <v>0</v>
       </c>
@@ -1112,7 +1320,7 @@
       </c>
       <c r="Q10" s="39"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11" s="13" t="s">
         <v>1</v>
       </c>
@@ -1150,7 +1358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="16" t="s">
         <v>0</v>
       </c>
@@ -1182,7 +1390,7 @@
       <c r="P12" s="42"/>
       <c r="Q12" s="43"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13" s="16" t="s">
         <v>1</v>
       </c>
@@ -1203,7 +1411,7 @@
       <c r="J13" s="19"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" s="13" t="s">
         <v>0</v>
       </c>
@@ -1222,7 +1430,7 @@
       <c r="J14" s="7"/>
       <c r="K14" s="28"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15" s="13" t="s">
         <v>1</v>
       </c>
@@ -1241,7 +1449,7 @@
       <c r="J15" s="7"/>
       <c r="K15" s="28"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16" s="16" t="s">
         <v>0</v>
       </c>
@@ -1262,7 +1470,7 @@
       </c>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17" s="16" t="s">
         <v>1</v>
       </c>
@@ -1283,7 +1491,7 @@
       </c>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A18" s="13" t="s">
         <v>0</v>
       </c>
@@ -1302,7 +1510,7 @@
       </c>
       <c r="K18" s="28"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A19" s="13" t="s">
         <v>1</v>
       </c>
@@ -1321,7 +1529,7 @@
       </c>
       <c r="K19" s="28"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20" s="16" t="s">
         <v>0</v>
       </c>
@@ -1338,7 +1546,7 @@
       </c>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="29" t="s">
         <v>1</v>
       </c>
@@ -1355,7 +1563,7 @@
       </c>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1368,8 +1576,8 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="24" spans="1:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="24" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="10" t="s">
         <v>16</v>
       </c>
@@ -1404,7 +1612,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25" s="13" t="s">
         <v>0</v>
       </c>
@@ -1432,7 +1640,7 @@
       <c r="P25" s="35"/>
       <c r="Q25" s="4"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A26" s="13" t="s">
         <v>1</v>
       </c>
@@ -1460,7 +1668,7 @@
       </c>
       <c r="Q26" s="37"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A27" s="16" t="s">
         <v>0</v>
       </c>
@@ -1494,7 +1702,7 @@
       <c r="P27" s="9"/>
       <c r="Q27" s="39"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A28" s="16" t="s">
         <v>1</v>
       </c>
@@ -1530,7 +1738,7 @@
       </c>
       <c r="Q28" s="40"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A29" s="13" t="s">
         <v>0</v>
       </c>
@@ -1568,7 +1776,7 @@
       <c r="P29" s="9"/>
       <c r="Q29" s="39"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A30" s="13" t="s">
         <v>1</v>
       </c>
@@ -1604,7 +1812,7 @@
       <c r="P30" s="5"/>
       <c r="Q30" s="40"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A31" s="16" t="s">
         <v>0</v>
       </c>
@@ -1640,7 +1848,7 @@
       <c r="P31" s="9"/>
       <c r="Q31" s="39"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A32" s="16" t="s">
         <v>1</v>
       </c>
@@ -1678,7 +1886,7 @@
       </c>
       <c r="Q32" s="40"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A33" s="13" t="s">
         <v>0</v>
       </c>
@@ -1712,7 +1920,7 @@
       <c r="P33" s="9"/>
       <c r="Q33" s="39"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A34" s="13" t="s">
         <v>1</v>
       </c>
@@ -1748,7 +1956,7 @@
       </c>
       <c r="Q34" s="40"/>
     </row>
-    <row r="35" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="16" t="s">
         <v>0</v>
       </c>
@@ -1782,7 +1990,7 @@
       </c>
       <c r="Q35" s="43"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A36" s="16" t="s">
         <v>1</v>
       </c>
@@ -1803,7 +2011,7 @@
       <c r="J36" s="19"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A37" s="13" t="s">
         <v>0</v>
       </c>
@@ -1822,7 +2030,7 @@
       <c r="J37" s="7"/>
       <c r="K37" s="28"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A38" s="13" t="s">
         <v>1</v>
       </c>
@@ -1841,7 +2049,7 @@
       <c r="J38" s="7"/>
       <c r="K38" s="28"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A39" s="16" t="s">
         <v>0</v>
       </c>
@@ -1862,7 +2070,7 @@
       </c>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A40" s="16" t="s">
         <v>1</v>
       </c>
@@ -1883,7 +2091,7 @@
       </c>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A41" s="13" t="s">
         <v>0</v>
       </c>
@@ -1902,7 +2110,7 @@
       </c>
       <c r="K41" s="28"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A42" s="13" t="s">
         <v>1</v>
       </c>
@@ -1921,7 +2129,7 @@
       </c>
       <c r="K42" s="28"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A43" s="16" t="s">
         <v>0</v>
       </c>
@@ -1938,7 +2146,7 @@
       </c>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="29" t="s">
         <v>1</v>
       </c>
@@ -1955,8 +2163,8 @@
       </c>
       <c r="K44" s="32"/>
     </row>
-    <row r="45" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
         <v>17</v>
       </c>
@@ -1971,7 +2179,7 @@
       <c r="J46" s="45"/>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A47" s="13" t="s">
         <v>18</v>
       </c>
@@ -2006,7 +2214,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A48" s="13" t="s">
         <v>0</v>
       </c>
@@ -2035,7 +2243,7 @@
       <c r="Q48" s="35"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A49" s="13" t="s">
         <v>1</v>
       </c>
@@ -2049,18 +2257,18 @@
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="15"/>
-      <c r="M49" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="N49" s="5">
-        <v>0</v>
-      </c>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
-      <c r="R49" s="37"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="M49" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="N49" s="54">
+        <v>0</v>
+      </c>
+      <c r="O49" s="55"/>
+      <c r="P49" s="55"/>
+      <c r="Q49" s="55"/>
+      <c r="R49" s="56"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A50" s="16" t="s">
         <v>0</v>
       </c>
@@ -2080,20 +2288,20 @@
       <c r="K50" s="20">
         <v>45</v>
       </c>
-      <c r="M50" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="N50" s="9">
+      <c r="M50" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="N50" s="58">
         <v>20</v>
       </c>
-      <c r="O50" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="P50" s="9"/>
-      <c r="Q50" s="9"/>
-      <c r="R50" s="39"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="O50" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="P50" s="58"/>
+      <c r="Q50" s="58"/>
+      <c r="R50" s="59"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A51" s="16" t="s">
         <v>1</v>
       </c>
@@ -2113,20 +2321,20 @@
       <c r="K51" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="M51" s="36" t="s">
+      <c r="M51" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="N51" s="5">
+      <c r="N51" s="54">
         <v>45</v>
       </c>
-      <c r="O51" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="40"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="O51" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="P51" s="54"/>
+      <c r="Q51" s="54"/>
+      <c r="R51" s="60"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A52" s="13" t="s">
         <v>0</v>
       </c>
@@ -2148,22 +2356,22 @@
       <c r="K52" s="26">
         <v>45</v>
       </c>
-      <c r="M52" s="38" t="s">
+      <c r="M52" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="N52" s="9">
+      <c r="N52" s="58">
         <v>90</v>
       </c>
-      <c r="O52" s="9" t="s">
+      <c r="O52" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="P52" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q52" s="9"/>
-      <c r="R52" s="39"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="P52" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q52" s="58"/>
+      <c r="R52" s="59"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A53" s="13" t="s">
         <v>1</v>
       </c>
@@ -2185,22 +2393,22 @@
       <c r="K53" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="M53" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="N53" s="5">
+      <c r="M53" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="N53" s="54">
         <v>45</v>
       </c>
-      <c r="O53" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P53" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="40"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="O53" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="P53" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q53" s="54"/>
+      <c r="R53" s="60"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A54" s="16" t="s">
         <v>0</v>
       </c>
@@ -2222,24 +2430,24 @@
       <c r="K54" s="21">
         <v>45</v>
       </c>
-      <c r="M54" s="38" t="s">
+      <c r="M54" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="N54" s="9">
+      <c r="N54" s="58">
         <v>120</v>
       </c>
-      <c r="O54" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="P54" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q54" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="R54" s="39"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="O54" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="P54" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="R54" s="59"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A55" s="16" t="s">
         <v>1</v>
       </c>
@@ -2261,24 +2469,24 @@
       <c r="K55" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="M55" s="36" t="s">
+      <c r="M55" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="N55" s="5">
+      <c r="N55" s="54">
         <v>135</v>
       </c>
-      <c r="O55" s="5" t="s">
+      <c r="O55" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="P55" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q55" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="R55" s="40"/>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="P55" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q55" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="R55" s="60"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A56" s="13" t="s">
         <v>0</v>
       </c>
@@ -2300,22 +2508,22 @@
       <c r="K56" s="27">
         <v>45</v>
       </c>
-      <c r="M56" s="38" t="s">
+      <c r="M56" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="N56" s="9">
+      <c r="N56" s="58">
         <v>120</v>
       </c>
-      <c r="O56" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="P56" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q56" s="9"/>
-      <c r="R56" s="39"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="O56" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="P56" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q56" s="58"/>
+      <c r="R56" s="59"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A57" s="13" t="s">
         <v>1</v>
       </c>
@@ -2337,26 +2545,26 @@
       <c r="K57" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="M57" s="36" t="s">
+      <c r="M57" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="N57" s="5">
+      <c r="N57" s="54">
         <v>130</v>
       </c>
-      <c r="O57" s="5" t="s">
+      <c r="O57" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="P57" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q57" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="R57" s="46" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="P57" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q57" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="R57" s="61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="16" t="s">
         <v>0</v>
       </c>
@@ -2376,20 +2584,20 @@
       </c>
       <c r="J58" s="19"/>
       <c r="K58" s="21"/>
-      <c r="M58" s="41" t="s">
+      <c r="M58" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="N58" s="42">
+      <c r="N58" s="63">
         <v>45</v>
       </c>
-      <c r="O58" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="P58" s="42"/>
-      <c r="Q58" s="42"/>
-      <c r="R58" s="43"/>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="O58" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="P58" s="63"/>
+      <c r="Q58" s="63"/>
+      <c r="R58" s="64"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A59" s="16" t="s">
         <v>1</v>
       </c>
@@ -2410,7 +2618,7 @@
       <c r="J59" s="19"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A60" s="13" t="s">
         <v>0</v>
       </c>
@@ -2429,7 +2637,7 @@
       <c r="J60" s="7"/>
       <c r="K60" s="28"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A61" s="13" t="s">
         <v>1</v>
       </c>
@@ -2448,7 +2656,7 @@
       <c r="J61" s="7"/>
       <c r="K61" s="28"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A62" s="16" t="s">
         <v>0</v>
       </c>
@@ -2469,7 +2677,7 @@
       </c>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A63" s="16" t="s">
         <v>1</v>
       </c>
@@ -2490,7 +2698,7 @@
       </c>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A64" s="13" t="s">
         <v>0</v>
       </c>
@@ -2509,7 +2717,7 @@
       </c>
       <c r="K64" s="28"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A65" s="13" t="s">
         <v>1</v>
       </c>
@@ -2528,7 +2736,7 @@
       </c>
       <c r="K65" s="28"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A66" s="16" t="s">
         <v>0</v>
       </c>
@@ -2545,7 +2753,7 @@
       </c>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A67" s="29" t="s">
         <v>1</v>
       </c>
@@ -2562,6 +2770,2674 @@
       </c>
       <c r="K67" s="32"/>
     </row>
+    <row r="69" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="70" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A70" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H70" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I70" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J70" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K70" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L70" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A71" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="14">
+        <v>0</v>
+      </c>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="27"/>
+      <c r="P71" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q71" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R71" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="S71" s="45"/>
+      <c r="T71" s="2"/>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A72" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="28"/>
+      <c r="P72" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q72" s="54">
+        <v>0</v>
+      </c>
+      <c r="R72" s="54"/>
+      <c r="S72" s="54"/>
+      <c r="T72" s="60"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A73" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18">
+        <v>20</v>
+      </c>
+      <c r="D73" s="17">
+        <v>45</v>
+      </c>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="19"/>
+      <c r="K73" s="17">
+        <v>45</v>
+      </c>
+      <c r="L73" s="20"/>
+      <c r="P73" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q73" s="58">
+        <v>20</v>
+      </c>
+      <c r="R73" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="S73" s="58"/>
+      <c r="T73" s="59"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A74" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" s="19"/>
+      <c r="C74" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="19"/>
+      <c r="K74" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="L74" s="21"/>
+      <c r="P74" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q74" s="54">
+        <v>45</v>
+      </c>
+      <c r="R74" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="S74" s="54"/>
+      <c r="T74" s="60"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A75" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="22"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23">
+        <v>45</v>
+      </c>
+      <c r="E75" s="25"/>
+      <c r="F75" s="23">
+        <v>45</v>
+      </c>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25">
+        <v>120</v>
+      </c>
+      <c r="J75" s="25"/>
+      <c r="K75" s="25">
+        <v>45</v>
+      </c>
+      <c r="L75" s="27">
+        <v>40</v>
+      </c>
+      <c r="P75" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q75" s="58">
+        <v>80</v>
+      </c>
+      <c r="R75" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="S75" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="T75" s="59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A76" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J76" s="25"/>
+      <c r="K76" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="L76" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q76" s="54">
+        <v>45</v>
+      </c>
+      <c r="R76" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="S76" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="T76" s="60"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A77" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="18">
+        <v>45</v>
+      </c>
+      <c r="E77" s="19">
+        <v>80</v>
+      </c>
+      <c r="F77" s="17">
+        <v>45</v>
+      </c>
+      <c r="G77" s="19"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19">
+        <v>120</v>
+      </c>
+      <c r="J77" s="19"/>
+      <c r="K77" s="19">
+        <v>45</v>
+      </c>
+      <c r="L77" s="20"/>
+      <c r="P77" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q77" s="58">
+        <v>120</v>
+      </c>
+      <c r="R77" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="S77" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="T77" s="59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A78" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E78" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F78" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G78" s="19"/>
+      <c r="H78" s="19"/>
+      <c r="I78" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J78" s="19"/>
+      <c r="K78" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="L78" s="21"/>
+      <c r="P78" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q78" s="85">
+        <v>110</v>
+      </c>
+      <c r="R78" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="S78" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="T78" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A79" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7">
+        <v>80</v>
+      </c>
+      <c r="F79" s="24">
+        <v>45</v>
+      </c>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7">
+        <v>120</v>
+      </c>
+      <c r="J79" s="7"/>
+      <c r="K79" s="22">
+        <v>45</v>
+      </c>
+      <c r="L79" s="28"/>
+      <c r="P79" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q79" s="58">
+        <v>95</v>
+      </c>
+      <c r="R79" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="S79" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="T79" s="59"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A80" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F80" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J80" s="7"/>
+      <c r="K80" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="L80" s="28"/>
+      <c r="P80" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q80" s="85">
+        <v>140</v>
+      </c>
+      <c r="R80" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="S80" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="T80" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A81" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="19"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="17">
+        <v>80</v>
+      </c>
+      <c r="F81" s="19"/>
+      <c r="G81" s="19">
+        <v>120</v>
+      </c>
+      <c r="H81" s="19"/>
+      <c r="I81" s="19">
+        <v>120</v>
+      </c>
+      <c r="J81" s="19"/>
+      <c r="K81" s="18">
+        <v>45</v>
+      </c>
+      <c r="L81" s="21"/>
+      <c r="P81" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q81" s="58">
+        <v>45</v>
+      </c>
+      <c r="R81" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="S81" s="58"/>
+      <c r="T81" s="59"/>
+    </row>
+    <row r="82" spans="1:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A82" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B82" s="19"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F82" s="19"/>
+      <c r="G82" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H82" s="19"/>
+      <c r="I82" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J82" s="19"/>
+      <c r="K82" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="L82" s="21"/>
+      <c r="P82" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q82" s="87">
+        <v>40</v>
+      </c>
+      <c r="R82" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="S82" s="87" t="s">
+        <v>2</v>
+      </c>
+      <c r="T82" s="88"/>
+    </row>
+    <row r="83" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A83" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="14">
+        <v>80</v>
+      </c>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7">
+        <v>120</v>
+      </c>
+      <c r="H83" s="7"/>
+      <c r="I83" s="22">
+        <v>95</v>
+      </c>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="28"/>
+    </row>
+    <row r="84" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A84" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H84" s="7"/>
+      <c r="I84" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="J84" s="7"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="28"/>
+    </row>
+    <row r="85" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A85" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="19"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="19">
+        <v>120</v>
+      </c>
+      <c r="H85" s="18"/>
+      <c r="I85" s="18">
+        <v>95</v>
+      </c>
+      <c r="J85" s="19"/>
+      <c r="K85" s="19"/>
+      <c r="L85" s="21"/>
+    </row>
+    <row r="86" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A86" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" s="19"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H86" s="18"/>
+      <c r="I86" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J86" s="19"/>
+      <c r="K86" s="19"/>
+      <c r="L86" s="21"/>
+    </row>
+    <row r="87" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A87" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="22">
+        <v>120</v>
+      </c>
+      <c r="H87" s="14">
+        <v>110</v>
+      </c>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7">
+        <v>140</v>
+      </c>
+      <c r="K87" s="7"/>
+      <c r="L87" s="28"/>
+    </row>
+    <row r="88" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A88" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H88" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K88" s="7"/>
+      <c r="L88" s="28"/>
+    </row>
+    <row r="89" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A89" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" s="19"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="18">
+        <v>120</v>
+      </c>
+      <c r="H89" s="19"/>
+      <c r="I89" s="19"/>
+      <c r="J89" s="17">
+        <v>140</v>
+      </c>
+      <c r="K89" s="19"/>
+      <c r="L89" s="21"/>
+    </row>
+    <row r="90" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A90" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="19"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H90" s="19"/>
+      <c r="I90" s="19"/>
+      <c r="J90" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K90" s="19"/>
+      <c r="L90" s="21"/>
+    </row>
+    <row r="91" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A91" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" s="14"/>
+      <c r="C91" s="50"/>
+      <c r="D91" s="50"/>
+      <c r="E91" s="50"/>
+      <c r="F91" s="50"/>
+      <c r="G91" s="50"/>
+      <c r="H91" s="50"/>
+      <c r="I91" s="50"/>
+      <c r="J91" s="14">
+        <v>140</v>
+      </c>
+      <c r="K91" s="50"/>
+      <c r="L91" s="27"/>
+    </row>
+    <row r="92" spans="1:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A92" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92" s="48"/>
+      <c r="C92" s="51"/>
+      <c r="D92" s="51"/>
+      <c r="E92" s="51"/>
+      <c r="F92" s="51"/>
+      <c r="G92" s="51"/>
+      <c r="H92" s="51"/>
+      <c r="I92" s="51"/>
+      <c r="J92" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="K92" s="51"/>
+      <c r="L92" s="49"/>
+    </row>
+    <row r="93" spans="1:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="94" spans="1:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A94" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G94" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H94" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J94" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K94" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L94" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M94" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N94" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="O94" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="P94" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q94" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R94" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="S94" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="T94" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="U94" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="V94" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="95" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A95" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" s="14">
+        <v>0</v>
+      </c>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="8"/>
+      <c r="J95" s="8"/>
+      <c r="K95" s="8"/>
+      <c r="L95" s="14"/>
+      <c r="M95" s="8"/>
+      <c r="N95" s="8"/>
+      <c r="O95" s="8"/>
+      <c r="P95" s="8"/>
+      <c r="Q95" s="8"/>
+      <c r="R95" s="8"/>
+      <c r="S95" s="8"/>
+      <c r="T95" s="14"/>
+      <c r="U95" s="8"/>
+      <c r="V95" s="15"/>
+      <c r="X95" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y95" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z95" s="80" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA95" s="45"/>
+      <c r="AB95" s="45"/>
+      <c r="AC95" s="45"/>
+      <c r="AD95" s="45"/>
+      <c r="AE95" s="45"/>
+      <c r="AF95" s="2"/>
+      <c r="AG95" s="45"/>
+      <c r="AH95" s="45"/>
+      <c r="AI95" s="45"/>
+      <c r="AJ95" s="45"/>
+      <c r="AK95" s="2"/>
+    </row>
+    <row r="96" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A96" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="8"/>
+      <c r="L96" s="7"/>
+      <c r="M96" s="8"/>
+      <c r="N96" s="8"/>
+      <c r="O96" s="8"/>
+      <c r="P96" s="8"/>
+      <c r="Q96" s="8"/>
+      <c r="R96" s="8"/>
+      <c r="S96" s="8"/>
+      <c r="T96" s="7"/>
+      <c r="U96" s="8"/>
+      <c r="V96" s="15"/>
+      <c r="X96" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y96" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="5"/>
+      <c r="AA96" s="5"/>
+      <c r="AB96" s="5"/>
+      <c r="AC96" s="5"/>
+      <c r="AD96" s="5"/>
+      <c r="AE96" s="5"/>
+      <c r="AF96" s="40"/>
+      <c r="AG96" s="89"/>
+      <c r="AH96" s="5"/>
+      <c r="AI96" s="5"/>
+      <c r="AJ96" s="5"/>
+      <c r="AK96" s="40"/>
+    </row>
+    <row r="97" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A97" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" s="17"/>
+      <c r="C97" s="18">
+        <v>20</v>
+      </c>
+      <c r="D97" s="17">
+        <v>45</v>
+      </c>
+      <c r="E97" s="19"/>
+      <c r="F97" s="19"/>
+      <c r="G97" s="19"/>
+      <c r="H97" s="19"/>
+      <c r="I97" s="19"/>
+      <c r="J97" s="19"/>
+      <c r="K97" s="17">
+        <v>45</v>
+      </c>
+      <c r="L97" s="17"/>
+      <c r="M97" s="18"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="19"/>
+      <c r="P97" s="19"/>
+      <c r="Q97" s="19"/>
+      <c r="R97" s="19"/>
+      <c r="S97" s="19"/>
+      <c r="T97" s="17"/>
+      <c r="U97" s="18"/>
+      <c r="V97" s="20"/>
+      <c r="X97" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y97" s="9">
+        <v>20</v>
+      </c>
+      <c r="Z97" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA97" s="9"/>
+      <c r="AB97" s="9"/>
+      <c r="AC97" s="9"/>
+      <c r="AD97" s="9"/>
+      <c r="AE97" s="9"/>
+      <c r="AF97" s="39"/>
+      <c r="AG97" s="90"/>
+      <c r="AH97" s="9"/>
+      <c r="AI97" s="9"/>
+      <c r="AJ97" s="9"/>
+      <c r="AK97" s="39"/>
+    </row>
+    <row r="98" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A98" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B98" s="19"/>
+      <c r="C98" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" s="19"/>
+      <c r="F98" s="19"/>
+      <c r="G98" s="19"/>
+      <c r="H98" s="19"/>
+      <c r="I98" s="19"/>
+      <c r="J98" s="19"/>
+      <c r="K98" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="L98" s="19"/>
+      <c r="M98" s="18"/>
+      <c r="N98" s="19"/>
+      <c r="O98" s="19"/>
+      <c r="P98" s="19"/>
+      <c r="Q98" s="19"/>
+      <c r="R98" s="19"/>
+      <c r="S98" s="19"/>
+      <c r="T98" s="19"/>
+      <c r="U98" s="18"/>
+      <c r="V98" s="21"/>
+      <c r="X98" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y98" s="5">
+        <v>45</v>
+      </c>
+      <c r="Z98" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA98" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB98" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC98" s="5"/>
+      <c r="AD98" s="5"/>
+      <c r="AE98" s="5"/>
+      <c r="AF98" s="40"/>
+      <c r="AG98" s="89"/>
+      <c r="AH98" s="5"/>
+      <c r="AI98" s="5"/>
+      <c r="AJ98" s="5"/>
+      <c r="AK98" s="40"/>
+    </row>
+    <row r="99" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A99" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" s="22"/>
+      <c r="C99" s="23"/>
+      <c r="D99" s="23">
+        <v>45</v>
+      </c>
+      <c r="E99" s="25"/>
+      <c r="F99" s="23">
+        <v>45</v>
+      </c>
+      <c r="G99" s="25"/>
+      <c r="H99" s="25"/>
+      <c r="I99" s="25">
+        <v>120</v>
+      </c>
+      <c r="J99" s="25"/>
+      <c r="K99" s="25">
+        <v>45</v>
+      </c>
+      <c r="L99" s="14">
+        <v>40</v>
+      </c>
+      <c r="M99" s="23"/>
+      <c r="N99" s="24"/>
+      <c r="O99" s="25"/>
+      <c r="P99" s="23"/>
+      <c r="Q99" s="25"/>
+      <c r="R99" s="25"/>
+      <c r="S99" s="25"/>
+      <c r="T99" s="22"/>
+      <c r="U99" s="23"/>
+      <c r="V99" s="65"/>
+      <c r="X99" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y99" s="9">
+        <v>80</v>
+      </c>
+      <c r="Z99" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA99" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB99" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC99" s="9"/>
+      <c r="AD99" s="9"/>
+      <c r="AE99" s="9"/>
+      <c r="AF99" s="39"/>
+      <c r="AG99" s="90"/>
+      <c r="AH99" s="9"/>
+      <c r="AI99" s="9"/>
+      <c r="AJ99" s="9"/>
+      <c r="AK99" s="39"/>
+    </row>
+    <row r="100" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A100" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c r="C100" s="25"/>
+      <c r="D100" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100" s="25"/>
+      <c r="F100" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="25"/>
+      <c r="H100" s="25"/>
+      <c r="I100" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="25"/>
+      <c r="K100" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="L100" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="25"/>
+      <c r="N100" s="24"/>
+      <c r="O100" s="25"/>
+      <c r="P100" s="25"/>
+      <c r="Q100" s="25"/>
+      <c r="R100" s="25"/>
+      <c r="S100" s="25"/>
+      <c r="T100" s="7"/>
+      <c r="U100" s="25"/>
+      <c r="V100" s="65"/>
+      <c r="X100" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y100" s="5">
+        <v>45</v>
+      </c>
+      <c r="Z100" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA100" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB100" s="5"/>
+      <c r="AC100" s="5"/>
+      <c r="AD100" s="5"/>
+      <c r="AE100" s="5"/>
+      <c r="AF100" s="40"/>
+      <c r="AG100" s="89"/>
+      <c r="AH100" s="5"/>
+      <c r="AI100" s="5"/>
+      <c r="AJ100" s="5"/>
+      <c r="AK100" s="40"/>
+    </row>
+    <row r="101" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A101" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" s="17"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="18">
+        <v>45</v>
+      </c>
+      <c r="E101" s="19">
+        <v>80</v>
+      </c>
+      <c r="F101" s="17">
+        <v>45</v>
+      </c>
+      <c r="G101" s="19"/>
+      <c r="H101" s="19"/>
+      <c r="I101" s="19">
+        <v>120</v>
+      </c>
+      <c r="J101" s="19"/>
+      <c r="K101" s="19">
+        <v>45</v>
+      </c>
+      <c r="L101" s="17"/>
+      <c r="M101" s="17"/>
+      <c r="N101" s="17"/>
+      <c r="O101" s="19"/>
+      <c r="P101" s="18"/>
+      <c r="Q101" s="19"/>
+      <c r="R101" s="19"/>
+      <c r="S101" s="19"/>
+      <c r="T101" s="17"/>
+      <c r="U101" s="17"/>
+      <c r="V101" s="20"/>
+      <c r="X101" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y101" s="9">
+        <v>120</v>
+      </c>
+      <c r="Z101" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA101" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB101" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC101" s="9"/>
+      <c r="AD101" s="9"/>
+      <c r="AE101" s="9"/>
+      <c r="AF101" s="39"/>
+      <c r="AG101" s="90"/>
+      <c r="AH101" s="9"/>
+      <c r="AI101" s="9"/>
+      <c r="AJ101" s="9"/>
+      <c r="AK101" s="39"/>
+    </row>
+    <row r="102" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A102" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B102" s="19"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E102" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F102" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G102" s="19"/>
+      <c r="H102" s="19"/>
+      <c r="I102" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J102" s="19"/>
+      <c r="K102" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="L102" s="19"/>
+      <c r="M102" s="19"/>
+      <c r="N102" s="19"/>
+      <c r="O102" s="19"/>
+      <c r="P102" s="18"/>
+      <c r="Q102" s="19"/>
+      <c r="R102" s="19"/>
+      <c r="S102" s="19"/>
+      <c r="T102" s="19"/>
+      <c r="U102" s="19"/>
+      <c r="V102" s="21"/>
+      <c r="X102" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y102" s="5">
+        <v>110</v>
+      </c>
+      <c r="Z102" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA102" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB102" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC102" s="5"/>
+      <c r="AD102" s="5"/>
+      <c r="AE102" s="5"/>
+      <c r="AF102" s="40"/>
+      <c r="AG102" s="89"/>
+      <c r="AH102" s="5"/>
+      <c r="AI102" s="5"/>
+      <c r="AJ102" s="5"/>
+      <c r="AK102" s="40"/>
+    </row>
+    <row r="103" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A103" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7">
+        <v>80</v>
+      </c>
+      <c r="F103" s="24">
+        <v>45</v>
+      </c>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7">
+        <v>120</v>
+      </c>
+      <c r="J103" s="7"/>
+      <c r="K103" s="22">
+        <v>45</v>
+      </c>
+      <c r="L103" s="7"/>
+      <c r="M103" s="7"/>
+      <c r="N103" s="7"/>
+      <c r="O103" s="7"/>
+      <c r="P103" s="23"/>
+      <c r="Q103" s="7"/>
+      <c r="R103" s="7"/>
+      <c r="S103" s="7"/>
+      <c r="T103" s="7"/>
+      <c r="U103" s="7"/>
+      <c r="V103" s="28"/>
+      <c r="X103" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y103" s="9">
+        <v>95</v>
+      </c>
+      <c r="Z103" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA103" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB103" s="9"/>
+      <c r="AC103" s="9"/>
+      <c r="AD103" s="9"/>
+      <c r="AE103" s="9"/>
+      <c r="AF103" s="39"/>
+      <c r="AG103" s="90"/>
+      <c r="AH103" s="9"/>
+      <c r="AI103" s="9"/>
+      <c r="AJ103" s="9"/>
+      <c r="AK103" s="39"/>
+    </row>
+    <row r="104" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A104" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F104" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J104" s="7"/>
+      <c r="K104" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="L104" s="7"/>
+      <c r="M104" s="7"/>
+      <c r="N104" s="7"/>
+      <c r="O104" s="7"/>
+      <c r="P104" s="23"/>
+      <c r="Q104" s="7"/>
+      <c r="R104" s="7"/>
+      <c r="S104" s="7"/>
+      <c r="T104" s="7"/>
+      <c r="U104" s="7"/>
+      <c r="V104" s="28"/>
+      <c r="X104" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y104" s="5">
+        <v>140</v>
+      </c>
+      <c r="Z104" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA104" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB104" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC104" s="5"/>
+      <c r="AD104" s="5"/>
+      <c r="AE104" s="5"/>
+      <c r="AF104" s="40"/>
+      <c r="AG104" s="89"/>
+      <c r="AH104" s="5"/>
+      <c r="AI104" s="5"/>
+      <c r="AJ104" s="5"/>
+      <c r="AK104" s="40"/>
+    </row>
+    <row r="105" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A105" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" s="19"/>
+      <c r="C105" s="19"/>
+      <c r="D105" s="19"/>
+      <c r="E105" s="17">
+        <v>80</v>
+      </c>
+      <c r="F105" s="19"/>
+      <c r="G105" s="19">
+        <v>120</v>
+      </c>
+      <c r="H105" s="19"/>
+      <c r="I105" s="19">
+        <v>120</v>
+      </c>
+      <c r="J105" s="19"/>
+      <c r="K105" s="18">
+        <v>45</v>
+      </c>
+      <c r="L105" s="19"/>
+      <c r="M105" s="19"/>
+      <c r="N105" s="19"/>
+      <c r="O105" s="18"/>
+      <c r="P105" s="19"/>
+      <c r="Q105" s="19"/>
+      <c r="R105" s="19"/>
+      <c r="S105" s="19"/>
+      <c r="T105" s="19"/>
+      <c r="U105" s="19"/>
+      <c r="V105" s="21"/>
+      <c r="X105" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y105" s="9">
+        <v>45</v>
+      </c>
+      <c r="Z105" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA105" s="9"/>
+      <c r="AB105" s="9"/>
+      <c r="AC105" s="9"/>
+      <c r="AD105" s="9"/>
+      <c r="AE105" s="9"/>
+      <c r="AF105" s="39"/>
+      <c r="AG105" s="90"/>
+      <c r="AH105" s="9"/>
+      <c r="AI105" s="9"/>
+      <c r="AJ105" s="9"/>
+      <c r="AK105" s="39"/>
+    </row>
+    <row r="106" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A106" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B106" s="19"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="19"/>
+      <c r="E106" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F106" s="19"/>
+      <c r="G106" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H106" s="19"/>
+      <c r="I106" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J106" s="19"/>
+      <c r="K106" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="L106" s="19"/>
+      <c r="M106" s="19"/>
+      <c r="N106" s="19"/>
+      <c r="O106" s="18"/>
+      <c r="P106" s="19"/>
+      <c r="Q106" s="19"/>
+      <c r="R106" s="19"/>
+      <c r="S106" s="19"/>
+      <c r="T106" s="19"/>
+      <c r="U106" s="19"/>
+      <c r="V106" s="21"/>
+      <c r="X106" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y106" s="5">
+        <v>40</v>
+      </c>
+      <c r="Z106" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA106" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB106" s="5"/>
+      <c r="AC106" s="5"/>
+      <c r="AD106" s="5"/>
+      <c r="AE106" s="5"/>
+      <c r="AF106" s="40"/>
+      <c r="AG106" s="89"/>
+      <c r="AH106" s="5"/>
+      <c r="AI106" s="5"/>
+      <c r="AJ106" s="5"/>
+      <c r="AK106" s="40"/>
+    </row>
+    <row r="107" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A107" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="14">
+        <v>80</v>
+      </c>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7">
+        <v>120</v>
+      </c>
+      <c r="H107" s="7"/>
+      <c r="I107" s="22">
+        <v>95</v>
+      </c>
+      <c r="J107" s="7"/>
+      <c r="K107" s="7"/>
+      <c r="L107" s="7"/>
+      <c r="M107" s="7"/>
+      <c r="N107" s="7"/>
+      <c r="O107" s="7"/>
+      <c r="P107" s="7"/>
+      <c r="Q107" s="7"/>
+      <c r="R107" s="7"/>
+      <c r="S107" s="14"/>
+      <c r="T107" s="7"/>
+      <c r="U107" s="7"/>
+      <c r="V107" s="28"/>
+      <c r="X107" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y107" s="9">
+        <v>135</v>
+      </c>
+      <c r="Z107" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA107" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB107" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC107" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD107" s="9"/>
+      <c r="AE107" s="9"/>
+      <c r="AF107" s="39"/>
+      <c r="AG107" s="90"/>
+      <c r="AH107" s="9"/>
+      <c r="AI107" s="9"/>
+      <c r="AJ107" s="9"/>
+      <c r="AK107" s="39"/>
+    </row>
+    <row r="108" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A108" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H108" s="7"/>
+      <c r="I108" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="J108" s="7"/>
+      <c r="K108" s="7"/>
+      <c r="L108" s="7"/>
+      <c r="M108" s="7"/>
+      <c r="N108" s="7"/>
+      <c r="O108" s="7"/>
+      <c r="P108" s="7"/>
+      <c r="Q108" s="7"/>
+      <c r="R108" s="7"/>
+      <c r="S108" s="14"/>
+      <c r="T108" s="7"/>
+      <c r="U108" s="7"/>
+      <c r="V108" s="28"/>
+      <c r="X108" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y108" s="5">
+        <v>180</v>
+      </c>
+      <c r="Z108" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA108" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB108" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC108" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD108" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE108" s="5"/>
+      <c r="AF108" s="40"/>
+      <c r="AG108" s="89"/>
+      <c r="AH108" s="5"/>
+      <c r="AI108" s="5"/>
+      <c r="AJ108" s="5"/>
+      <c r="AK108" s="40"/>
+    </row>
+    <row r="109" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A109" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" s="19"/>
+      <c r="C109" s="19"/>
+      <c r="D109" s="19"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="19"/>
+      <c r="G109" s="19">
+        <v>120</v>
+      </c>
+      <c r="H109" s="18"/>
+      <c r="I109" s="18">
+        <v>95</v>
+      </c>
+      <c r="J109" s="19"/>
+      <c r="K109" s="19"/>
+      <c r="L109" s="19"/>
+      <c r="M109" s="19"/>
+      <c r="N109" s="19"/>
+      <c r="O109" s="19"/>
+      <c r="P109" s="19"/>
+      <c r="Q109" s="19"/>
+      <c r="R109" s="18"/>
+      <c r="S109" s="19"/>
+      <c r="T109" s="19"/>
+      <c r="U109" s="19"/>
+      <c r="V109" s="21"/>
+      <c r="X109" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y109" s="9">
+        <v>140</v>
+      </c>
+      <c r="Z109" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA109" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB109" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC109" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD109" s="9"/>
+      <c r="AE109" s="9"/>
+      <c r="AF109" s="39"/>
+      <c r="AG109" s="90"/>
+      <c r="AH109" s="9"/>
+      <c r="AI109" s="9"/>
+      <c r="AJ109" s="9"/>
+      <c r="AK109" s="39"/>
+    </row>
+    <row r="110" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A110" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B110" s="19"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="19"/>
+      <c r="E110" s="19"/>
+      <c r="F110" s="19"/>
+      <c r="G110" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H110" s="18"/>
+      <c r="I110" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J110" s="19"/>
+      <c r="K110" s="19"/>
+      <c r="L110" s="19"/>
+      <c r="M110" s="19"/>
+      <c r="N110" s="19"/>
+      <c r="O110" s="19"/>
+      <c r="P110" s="19"/>
+      <c r="Q110" s="19"/>
+      <c r="R110" s="18"/>
+      <c r="S110" s="19"/>
+      <c r="T110" s="19"/>
+      <c r="U110" s="19"/>
+      <c r="V110" s="21"/>
+      <c r="X110" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y110" s="5">
+        <v>200</v>
+      </c>
+      <c r="Z110" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA110" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB110" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC110" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD110" s="5"/>
+      <c r="AE110" s="5"/>
+      <c r="AF110" s="40"/>
+      <c r="AG110" s="89"/>
+      <c r="AH110" s="5"/>
+      <c r="AI110" s="5"/>
+      <c r="AJ110" s="5"/>
+      <c r="AK110" s="40"/>
+    </row>
+    <row r="111" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A111" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="22">
+        <v>120</v>
+      </c>
+      <c r="H111" s="14">
+        <v>110</v>
+      </c>
+      <c r="I111" s="7"/>
+      <c r="J111" s="7">
+        <v>140</v>
+      </c>
+      <c r="K111" s="7"/>
+      <c r="L111" s="7"/>
+      <c r="M111" s="7"/>
+      <c r="N111" s="7"/>
+      <c r="O111" s="7"/>
+      <c r="P111" s="7"/>
+      <c r="Q111" s="14"/>
+      <c r="R111" s="7"/>
+      <c r="S111" s="7"/>
+      <c r="T111" s="7"/>
+      <c r="U111" s="7"/>
+      <c r="V111" s="28"/>
+      <c r="X111" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y111" s="9">
+        <v>200</v>
+      </c>
+      <c r="Z111" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA111" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB111" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC111" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD111" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE111" s="9"/>
+      <c r="AF111" s="39"/>
+      <c r="AG111" s="90"/>
+      <c r="AH111" s="9"/>
+      <c r="AI111" s="9"/>
+      <c r="AJ111" s="9"/>
+      <c r="AK111" s="39"/>
+    </row>
+    <row r="112" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A112" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H112" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I112" s="7"/>
+      <c r="J112" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K112" s="7"/>
+      <c r="L112" s="7"/>
+      <c r="M112" s="7"/>
+      <c r="N112" s="7"/>
+      <c r="O112" s="7"/>
+      <c r="P112" s="7"/>
+      <c r="Q112" s="14"/>
+      <c r="R112" s="7"/>
+      <c r="S112" s="7"/>
+      <c r="T112" s="7"/>
+      <c r="U112" s="7"/>
+      <c r="V112" s="28"/>
+      <c r="X112" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y112" s="5">
+        <v>240</v>
+      </c>
+      <c r="Z112" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA112" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB112" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC112" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD112" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE112" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF112" s="40"/>
+      <c r="AG112" s="89"/>
+      <c r="AH112" s="5"/>
+      <c r="AI112" s="5"/>
+      <c r="AJ112" s="5"/>
+      <c r="AK112" s="40"/>
+    </row>
+    <row r="113" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A113" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" s="19"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="19"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="19"/>
+      <c r="G113" s="18">
+        <v>120</v>
+      </c>
+      <c r="H113" s="19"/>
+      <c r="I113" s="19"/>
+      <c r="J113" s="17">
+        <v>140</v>
+      </c>
+      <c r="K113" s="19"/>
+      <c r="L113" s="19"/>
+      <c r="M113" s="19">
+        <v>135</v>
+      </c>
+      <c r="N113" s="19"/>
+      <c r="O113" s="19">
+        <v>170</v>
+      </c>
+      <c r="P113" s="19"/>
+      <c r="Q113" s="19"/>
+      <c r="R113" s="19"/>
+      <c r="S113" s="19"/>
+      <c r="T113" s="19"/>
+      <c r="U113" s="19"/>
+      <c r="V113" s="21"/>
+      <c r="X113" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y113" s="9">
+        <v>210</v>
+      </c>
+      <c r="Z113" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA113" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB113" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC113" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD113" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE113" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF113" s="39"/>
+      <c r="AG113" s="90"/>
+      <c r="AH113" s="9"/>
+      <c r="AI113" s="9"/>
+      <c r="AJ113" s="9"/>
+      <c r="AK113" s="39"/>
+    </row>
+    <row r="114" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A114" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B114" s="19"/>
+      <c r="C114" s="19"/>
+      <c r="D114" s="19"/>
+      <c r="E114" s="19"/>
+      <c r="F114" s="19"/>
+      <c r="G114" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H114" s="19"/>
+      <c r="I114" s="19"/>
+      <c r="J114" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K114" s="19"/>
+      <c r="L114" s="19"/>
+      <c r="M114" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="N114" s="19"/>
+      <c r="O114" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="P114" s="19"/>
+      <c r="Q114" s="19"/>
+      <c r="R114" s="19"/>
+      <c r="S114" s="19"/>
+      <c r="T114" s="19"/>
+      <c r="U114" s="19"/>
+      <c r="V114" s="21"/>
+      <c r="X114" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y114" s="5">
+        <v>250</v>
+      </c>
+      <c r="Z114" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA114" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB114" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC114" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD114" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE114" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF114" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG114" s="89"/>
+      <c r="AH114" s="5"/>
+      <c r="AI114" s="5"/>
+      <c r="AJ114" s="5"/>
+      <c r="AK114" s="40"/>
+    </row>
+    <row r="115" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A115" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" s="70"/>
+      <c r="C115" s="71"/>
+      <c r="D115" s="70"/>
+      <c r="E115" s="70"/>
+      <c r="F115" s="70"/>
+      <c r="G115" s="70"/>
+      <c r="H115" s="70"/>
+      <c r="I115" s="70"/>
+      <c r="J115" s="70">
+        <v>140</v>
+      </c>
+      <c r="K115" s="70"/>
+      <c r="L115" s="70"/>
+      <c r="M115" s="71">
+        <v>135</v>
+      </c>
+      <c r="N115" s="70"/>
+      <c r="O115" s="70">
+        <v>140</v>
+      </c>
+      <c r="P115" s="70">
+        <v>200</v>
+      </c>
+      <c r="Q115" s="70">
+        <v>210</v>
+      </c>
+      <c r="R115" s="70"/>
+      <c r="S115" s="70"/>
+      <c r="T115" s="70"/>
+      <c r="U115" s="71"/>
+      <c r="V115" s="77"/>
+      <c r="X115" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y115" s="9">
+        <v>220</v>
+      </c>
+      <c r="Z115" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA115" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB115" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC115" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD115" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE115" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF115" s="39"/>
+      <c r="AG115" s="90"/>
+      <c r="AH115" s="9"/>
+      <c r="AI115" s="9"/>
+      <c r="AJ115" s="9"/>
+      <c r="AK115" s="39"/>
+    </row>
+    <row r="116" spans="1:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A116" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="B116" s="70"/>
+      <c r="C116" s="71"/>
+      <c r="D116" s="70"/>
+      <c r="E116" s="70"/>
+      <c r="F116" s="70"/>
+      <c r="G116" s="70"/>
+      <c r="H116" s="70"/>
+      <c r="I116" s="70"/>
+      <c r="J116" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="K116" s="70"/>
+      <c r="L116" s="70"/>
+      <c r="M116" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="N116" s="70"/>
+      <c r="O116" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="P116" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q116" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="R116" s="70"/>
+      <c r="S116" s="70"/>
+      <c r="T116" s="70"/>
+      <c r="U116" s="71"/>
+      <c r="V116" s="77"/>
+      <c r="X116" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y116" s="81">
+        <v>240</v>
+      </c>
+      <c r="Z116" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA116" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB116" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC116" s="81" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD116" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE116" s="81" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF116" s="82" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG116" s="91"/>
+      <c r="AH116" s="81"/>
+      <c r="AI116" s="81"/>
+      <c r="AJ116" s="81"/>
+      <c r="AK116" s="82"/>
+    </row>
+    <row r="117" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A117" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117" s="67"/>
+      <c r="C117" s="67"/>
+      <c r="D117" s="68"/>
+      <c r="E117" s="67"/>
+      <c r="F117" s="67"/>
+      <c r="G117" s="67"/>
+      <c r="H117" s="67"/>
+      <c r="I117" s="67"/>
+      <c r="J117" s="68">
+        <v>140</v>
+      </c>
+      <c r="K117" s="67"/>
+      <c r="L117" s="67"/>
+      <c r="M117" s="67"/>
+      <c r="N117" s="67">
+        <v>230</v>
+      </c>
+      <c r="O117" s="67">
+        <v>140</v>
+      </c>
+      <c r="P117" s="67">
+        <v>200</v>
+      </c>
+      <c r="Q117" s="67">
+        <v>210</v>
+      </c>
+      <c r="R117" s="67"/>
+      <c r="S117" s="67"/>
+      <c r="T117" s="67"/>
+      <c r="U117" s="67"/>
+      <c r="V117" s="79"/>
+    </row>
+    <row r="118" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A118" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="B118" s="67"/>
+      <c r="C118" s="67"/>
+      <c r="D118" s="68"/>
+      <c r="E118" s="67"/>
+      <c r="F118" s="67"/>
+      <c r="G118" s="67"/>
+      <c r="H118" s="67"/>
+      <c r="I118" s="67"/>
+      <c r="J118" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="K118" s="67"/>
+      <c r="L118" s="67"/>
+      <c r="M118" s="67"/>
+      <c r="N118" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="O118" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="P118" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q118" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="R118" s="67"/>
+      <c r="S118" s="67"/>
+      <c r="T118" s="67"/>
+      <c r="U118" s="67"/>
+      <c r="V118" s="79"/>
+    </row>
+    <row r="119" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A119" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" s="70"/>
+      <c r="C119" s="70"/>
+      <c r="D119" s="70"/>
+      <c r="E119" s="70"/>
+      <c r="F119" s="71"/>
+      <c r="G119" s="70"/>
+      <c r="H119" s="70"/>
+      <c r="I119" s="70"/>
+      <c r="J119" s="70"/>
+      <c r="K119" s="70"/>
+      <c r="L119" s="70"/>
+      <c r="M119" s="70"/>
+      <c r="N119" s="70">
+        <v>230</v>
+      </c>
+      <c r="O119" s="71">
+        <v>140</v>
+      </c>
+      <c r="P119" s="70">
+        <v>200</v>
+      </c>
+      <c r="Q119" s="70">
+        <v>210</v>
+      </c>
+      <c r="R119" s="70"/>
+      <c r="S119" s="70"/>
+      <c r="T119" s="70"/>
+      <c r="U119" s="70"/>
+      <c r="V119" s="77"/>
+    </row>
+    <row r="120" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A120" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="B120" s="70"/>
+      <c r="C120" s="70"/>
+      <c r="D120" s="70"/>
+      <c r="E120" s="70"/>
+      <c r="F120" s="71"/>
+      <c r="G120" s="70"/>
+      <c r="H120" s="70"/>
+      <c r="I120" s="70"/>
+      <c r="J120" s="70"/>
+      <c r="K120" s="70"/>
+      <c r="L120" s="70"/>
+      <c r="M120" s="70"/>
+      <c r="N120" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="O120" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="P120" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q120" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="R120" s="70"/>
+      <c r="S120" s="70"/>
+      <c r="T120" s="70"/>
+      <c r="U120" s="70"/>
+      <c r="V120" s="77"/>
+    </row>
+    <row r="121" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A121" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" s="67"/>
+      <c r="C121" s="67"/>
+      <c r="D121" s="67"/>
+      <c r="E121" s="67"/>
+      <c r="F121" s="67"/>
+      <c r="G121" s="67"/>
+      <c r="H121" s="67"/>
+      <c r="I121" s="67"/>
+      <c r="J121" s="67"/>
+      <c r="K121" s="68"/>
+      <c r="L121" s="67"/>
+      <c r="M121" s="67"/>
+      <c r="N121" s="68">
+        <v>180</v>
+      </c>
+      <c r="O121" s="67"/>
+      <c r="P121" s="67">
+        <v>200</v>
+      </c>
+      <c r="Q121" s="67">
+        <v>200</v>
+      </c>
+      <c r="R121" s="67"/>
+      <c r="S121" s="67"/>
+      <c r="T121" s="67"/>
+      <c r="U121" s="67"/>
+      <c r="V121" s="69"/>
+    </row>
+    <row r="122" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A122" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="B122" s="67"/>
+      <c r="C122" s="67"/>
+      <c r="D122" s="67"/>
+      <c r="E122" s="67"/>
+      <c r="F122" s="67"/>
+      <c r="G122" s="67"/>
+      <c r="H122" s="67"/>
+      <c r="I122" s="67"/>
+      <c r="J122" s="67"/>
+      <c r="K122" s="68"/>
+      <c r="L122" s="67"/>
+      <c r="M122" s="67"/>
+      <c r="N122" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="O122" s="67"/>
+      <c r="P122" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q122" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="R122" s="67"/>
+      <c r="S122" s="67"/>
+      <c r="T122" s="67"/>
+      <c r="U122" s="67"/>
+      <c r="V122" s="69"/>
+    </row>
+    <row r="123" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A123" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" s="70"/>
+      <c r="C123" s="70"/>
+      <c r="D123" s="70"/>
+      <c r="E123" s="71"/>
+      <c r="F123" s="70"/>
+      <c r="G123" s="70"/>
+      <c r="H123" s="70"/>
+      <c r="I123" s="70"/>
+      <c r="J123" s="70"/>
+      <c r="K123" s="70"/>
+      <c r="L123" s="70"/>
+      <c r="M123" s="70"/>
+      <c r="N123" s="70"/>
+      <c r="O123" s="71"/>
+      <c r="P123" s="71">
+        <v>200</v>
+      </c>
+      <c r="Q123" s="70">
+        <v>200</v>
+      </c>
+      <c r="R123" s="70"/>
+      <c r="S123" s="70">
+        <v>210</v>
+      </c>
+      <c r="T123" s="70"/>
+      <c r="U123" s="70"/>
+      <c r="V123" s="77"/>
+    </row>
+    <row r="124" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A124" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="B124" s="70"/>
+      <c r="C124" s="70"/>
+      <c r="D124" s="70"/>
+      <c r="E124" s="71"/>
+      <c r="F124" s="70"/>
+      <c r="G124" s="70"/>
+      <c r="H124" s="70"/>
+      <c r="I124" s="70"/>
+      <c r="J124" s="70"/>
+      <c r="K124" s="70"/>
+      <c r="L124" s="70"/>
+      <c r="M124" s="70"/>
+      <c r="N124" s="70"/>
+      <c r="O124" s="71"/>
+      <c r="P124" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q124" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="R124" s="70"/>
+      <c r="S124" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="T124" s="70"/>
+      <c r="U124" s="70"/>
+      <c r="V124" s="77"/>
+    </row>
+    <row r="125" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A125" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B125" s="67"/>
+      <c r="C125" s="67"/>
+      <c r="D125" s="67"/>
+      <c r="E125" s="67"/>
+      <c r="F125" s="67"/>
+      <c r="G125" s="67"/>
+      <c r="H125" s="67"/>
+      <c r="I125" s="68"/>
+      <c r="J125" s="67"/>
+      <c r="K125" s="67"/>
+      <c r="L125" s="67"/>
+      <c r="M125" s="67"/>
+      <c r="N125" s="67"/>
+      <c r="O125" s="67"/>
+      <c r="P125" s="67"/>
+      <c r="Q125" s="68">
+        <v>200</v>
+      </c>
+      <c r="R125" s="67"/>
+      <c r="S125" s="67">
+        <v>210</v>
+      </c>
+      <c r="T125" s="67"/>
+      <c r="U125" s="67"/>
+      <c r="V125" s="69">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="126" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A126" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="B126" s="67"/>
+      <c r="C126" s="67"/>
+      <c r="D126" s="67"/>
+      <c r="E126" s="67"/>
+      <c r="F126" s="67"/>
+      <c r="G126" s="67"/>
+      <c r="H126" s="67"/>
+      <c r="I126" s="68"/>
+      <c r="J126" s="67"/>
+      <c r="K126" s="67"/>
+      <c r="L126" s="67"/>
+      <c r="M126" s="67"/>
+      <c r="N126" s="67"/>
+      <c r="O126" s="67"/>
+      <c r="P126" s="67"/>
+      <c r="Q126" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="R126" s="67"/>
+      <c r="S126" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="T126" s="67"/>
+      <c r="U126" s="67"/>
+      <c r="V126" s="69" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="127" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A127" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127" s="70"/>
+      <c r="C127" s="70"/>
+      <c r="D127" s="70"/>
+      <c r="E127" s="70"/>
+      <c r="F127" s="70"/>
+      <c r="G127" s="70"/>
+      <c r="H127" s="71"/>
+      <c r="I127" s="70"/>
+      <c r="J127" s="70"/>
+      <c r="K127" s="70"/>
+      <c r="L127" s="70"/>
+      <c r="M127" s="70"/>
+      <c r="N127" s="70"/>
+      <c r="O127" s="70"/>
+      <c r="P127" s="70"/>
+      <c r="Q127" s="70"/>
+      <c r="R127" s="70">
+        <v>240</v>
+      </c>
+      <c r="S127" s="71">
+        <v>210</v>
+      </c>
+      <c r="T127" s="70"/>
+      <c r="U127" s="70">
+        <v>220</v>
+      </c>
+      <c r="V127" s="77">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="128" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A128" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="B128" s="70"/>
+      <c r="C128" s="70"/>
+      <c r="D128" s="70"/>
+      <c r="E128" s="70"/>
+      <c r="F128" s="70"/>
+      <c r="G128" s="70"/>
+      <c r="H128" s="71"/>
+      <c r="I128" s="70"/>
+      <c r="J128" s="70"/>
+      <c r="K128" s="70"/>
+      <c r="L128" s="70"/>
+      <c r="M128" s="70"/>
+      <c r="N128" s="70"/>
+      <c r="O128" s="70"/>
+      <c r="P128" s="70"/>
+      <c r="Q128" s="70"/>
+      <c r="R128" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="S128" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="T128" s="70"/>
+      <c r="U128" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="V128" s="77" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A129" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129" s="67"/>
+      <c r="C129" s="67"/>
+      <c r="D129" s="67"/>
+      <c r="E129" s="67"/>
+      <c r="F129" s="67"/>
+      <c r="G129" s="68"/>
+      <c r="H129" s="67"/>
+      <c r="I129" s="67"/>
+      <c r="J129" s="67"/>
+      <c r="K129" s="67"/>
+      <c r="L129" s="67"/>
+      <c r="M129" s="67"/>
+      <c r="N129" s="67"/>
+      <c r="O129" s="67"/>
+      <c r="P129" s="67"/>
+      <c r="Q129" s="68"/>
+      <c r="R129" s="67">
+        <v>240</v>
+      </c>
+      <c r="S129" s="67"/>
+      <c r="T129" s="67">
+        <v>260</v>
+      </c>
+      <c r="U129" s="68">
+        <v>220</v>
+      </c>
+      <c r="V129" s="69">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A130" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="B130" s="67"/>
+      <c r="C130" s="67"/>
+      <c r="D130" s="67"/>
+      <c r="E130" s="67"/>
+      <c r="F130" s="67"/>
+      <c r="G130" s="68"/>
+      <c r="H130" s="67"/>
+      <c r="I130" s="67"/>
+      <c r="J130" s="67"/>
+      <c r="K130" s="67"/>
+      <c r="L130" s="67"/>
+      <c r="M130" s="67"/>
+      <c r="N130" s="67"/>
+      <c r="O130" s="67"/>
+      <c r="P130" s="67"/>
+      <c r="Q130" s="68"/>
+      <c r="R130" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="S130" s="67"/>
+      <c r="T130" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="U130" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="V130" s="69" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A131" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" s="70"/>
+      <c r="C131" s="70"/>
+      <c r="D131" s="70"/>
+      <c r="E131" s="70"/>
+      <c r="F131" s="70"/>
+      <c r="G131" s="70"/>
+      <c r="H131" s="70"/>
+      <c r="I131" s="70"/>
+      <c r="J131" s="71"/>
+      <c r="K131" s="70"/>
+      <c r="L131" s="70"/>
+      <c r="M131" s="70"/>
+      <c r="N131" s="70"/>
+      <c r="O131" s="70"/>
+      <c r="P131" s="70"/>
+      <c r="Q131" s="70"/>
+      <c r="R131" s="71">
+        <v>240</v>
+      </c>
+      <c r="S131" s="70"/>
+      <c r="T131" s="70">
+        <v>260</v>
+      </c>
+      <c r="U131" s="70"/>
+      <c r="V131" s="77">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A132" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="B132" s="70"/>
+      <c r="C132" s="70"/>
+      <c r="D132" s="70"/>
+      <c r="E132" s="70"/>
+      <c r="F132" s="70"/>
+      <c r="G132" s="70"/>
+      <c r="H132" s="70"/>
+      <c r="I132" s="70"/>
+      <c r="J132" s="71"/>
+      <c r="K132" s="70"/>
+      <c r="L132" s="70"/>
+      <c r="M132" s="70"/>
+      <c r="N132" s="70"/>
+      <c r="O132" s="70"/>
+      <c r="P132" s="70"/>
+      <c r="Q132" s="70"/>
+      <c r="R132" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="S132" s="70"/>
+      <c r="T132" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="U132" s="70"/>
+      <c r="V132" s="77" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A133" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" s="67"/>
+      <c r="C133" s="68"/>
+      <c r="D133" s="67"/>
+      <c r="E133" s="67"/>
+      <c r="F133" s="67"/>
+      <c r="G133" s="67"/>
+      <c r="H133" s="67"/>
+      <c r="I133" s="67"/>
+      <c r="J133" s="67"/>
+      <c r="K133" s="67"/>
+      <c r="L133" s="67"/>
+      <c r="M133" s="68"/>
+      <c r="N133" s="67"/>
+      <c r="O133" s="67"/>
+      <c r="P133" s="67"/>
+      <c r="Q133" s="67"/>
+      <c r="R133" s="67"/>
+      <c r="S133" s="67"/>
+      <c r="T133" s="67">
+        <v>250</v>
+      </c>
+      <c r="U133" s="68"/>
+      <c r="V133" s="79">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A134" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="67"/>
+      <c r="C134" s="68"/>
+      <c r="D134" s="67"/>
+      <c r="E134" s="67"/>
+      <c r="F134" s="67"/>
+      <c r="G134" s="67"/>
+      <c r="H134" s="67"/>
+      <c r="I134" s="67"/>
+      <c r="J134" s="67"/>
+      <c r="K134" s="67"/>
+      <c r="L134" s="67"/>
+      <c r="M134" s="68"/>
+      <c r="N134" s="67"/>
+      <c r="O134" s="67"/>
+      <c r="P134" s="67"/>
+      <c r="Q134" s="67"/>
+      <c r="R134" s="67"/>
+      <c r="S134" s="67"/>
+      <c r="T134" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="U134" s="68"/>
+      <c r="V134" s="79" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A135" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B135" s="70"/>
+      <c r="C135" s="70"/>
+      <c r="D135" s="71"/>
+      <c r="E135" s="70"/>
+      <c r="F135" s="70"/>
+      <c r="G135" s="70"/>
+      <c r="H135" s="70"/>
+      <c r="I135" s="70"/>
+      <c r="J135" s="70"/>
+      <c r="K135" s="70"/>
+      <c r="L135" s="70"/>
+      <c r="M135" s="70"/>
+      <c r="N135" s="71"/>
+      <c r="O135" s="70"/>
+      <c r="P135" s="70"/>
+      <c r="Q135" s="70"/>
+      <c r="R135" s="70"/>
+      <c r="S135" s="70"/>
+      <c r="T135" s="71">
+        <v>250</v>
+      </c>
+      <c r="U135" s="70"/>
+      <c r="V135" s="72"/>
+    </row>
+    <row r="136" spans="1:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A136" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="B136" s="73"/>
+      <c r="C136" s="73"/>
+      <c r="D136" s="74"/>
+      <c r="E136" s="73"/>
+      <c r="F136" s="73"/>
+      <c r="G136" s="73"/>
+      <c r="H136" s="73"/>
+      <c r="I136" s="73"/>
+      <c r="J136" s="73"/>
+      <c r="K136" s="73"/>
+      <c r="L136" s="73"/>
+      <c r="M136" s="73"/>
+      <c r="N136" s="74"/>
+      <c r="O136" s="73"/>
+      <c r="P136" s="73"/>
+      <c r="Q136" s="73"/>
+      <c r="R136" s="73"/>
+      <c r="S136" s="73"/>
+      <c r="T136" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="U136" s="73"/>
+      <c r="V136" s="75"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
